--- a/stocks/dividendo.xlsx
+++ b/stocks/dividendo.xlsx
@@ -4,26 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="14190" windowHeight="7185" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="14190" windowHeight="7185" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Patrimonio" sheetId="1" r:id="rId1"/>
     <sheet name="Proventos" sheetId="6" r:id="rId2"/>
     <sheet name="Tabela Proventos" sheetId="8" r:id="rId3"/>
-    <sheet name="Plan1" sheetId="9" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3551" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3496" uniqueCount="163">
   <si>
     <t>Ano</t>
   </si>
@@ -1148,26 +1144,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="YF_Price"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Engelbert" refreshedDate="41621.723754629631" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="526">
   <cacheSource type="worksheet">
@@ -3921,7 +3897,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:C195" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -46101,7 +46077,7 @@
   <sheetPr codeName="Plan3"/>
   <dimension ref="A4:C195"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -48255,737 +48231,4 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C55"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1">
-        <f>[1]!YF_Price(CONCATENATE(A1,".SA"),"CLOSE")</f>
-        <v>1220</v>
-      </c>
-      <c r="C1">
-        <f>B1/100</f>
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2">
-        <f>[1]!YF_Price(CONCATENATE(A2,".SA"),"CLOSE")</f>
-        <v>700</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C55" si="0">B2/100</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3">
-        <f>[1]!YF_Price(CONCATENATE(A3,".SA"),"CLOSE")</f>
-        <v>1865</v>
-      </c>
-      <c r="C3">
-        <f t="shared" si="0"/>
-        <v>18.649999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4">
-        <f>[1]!YF_Price(CONCATENATE(A4,".SA"),"CLOSE")</f>
-        <v>2381</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>23.81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5">
-        <f>[1]!YF_Price(CONCATENATE(A5,".SA"),"CLOSE")</f>
-        <v>529</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>5.29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6">
-        <f>[1]!YF_Price(CONCATENATE(A6,".SA"),"CLOSE")</f>
-        <v>2398</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>23.98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7">
-        <f>[1]!YF_Price(CONCATENATE(A7,".SA"),"CLOSE")</f>
-        <v>835</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>8.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <f>[1]!YF_Price(CONCATENATE(A8,".SA"),"CLOSE")</f>
-        <v>740</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9">
-        <f>[1]!YF_Price(CONCATENATE(A9,".SA"),"CLOSE")</f>
-        <v>99</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10">
-        <f>[1]!YF_Price(CONCATENATE(A10,".SA"),"CLOSE")</f>
-        <v>1970</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11">
-        <f>[1]!YF_Price(CONCATENATE(A11,".SA"),"CLOSE")</f>
-        <v>2455</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>24.55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12">
-        <f>[1]!YF_Price(CONCATENATE(A12,".SA"),"CLOSE")</f>
-        <v>1906</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>19.059999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13">
-        <f>[1]!YF_Price(CONCATENATE(A13,".SA"),"CLOSE")</f>
-        <v>1820</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14">
-        <f>[1]!YF_Price(CONCATENATE(A14,".SA"),"CLOSE")</f>
-        <v>1825</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>18.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15">
-        <f>[1]!YF_Price(CONCATENATE(A15,".SA"),"CLOSE")</f>
-        <v>1223</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>12.23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16">
-        <f>[1]!YF_Price(CONCATENATE(A16,".SA"),"CLOSE")</f>
-        <v>1096</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>10.96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B17">
-        <f>[1]!YF_Price(CONCATENATE(A17,".SA"),"CLOSE")</f>
-        <v>1859</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>18.59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18">
-        <f>[1]!YF_Price(CONCATENATE(A18,".SA"),"CLOSE")</f>
-        <v>1832</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>18.32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19">
-        <f>[1]!YF_Price(CONCATENATE(A19,".SA"),"CLOSE")</f>
-        <v>1845</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>18.45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>146</v>
-      </c>
-      <c r="B20">
-        <f>[1]!YF_Price(CONCATENATE(A20,".SA"),"CLOSE")</f>
-        <v>2200</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21">
-        <f>[1]!YF_Price(CONCATENATE(A21,".SA"),"CLOSE")</f>
-        <v>336</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22">
-        <f>[1]!YF_Price(CONCATENATE(A22,".SA"),"CLOSE")</f>
-        <v>2425</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>24.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23">
-        <f>[1]!YF_Price(CONCATENATE(A23,".SA"),"CLOSE")</f>
-        <v>775</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24">
-        <f>[1]!YF_Price(CONCATENATE(A24,".SA"),"CLOSE")</f>
-        <v>591</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>5.91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25">
-        <f>[1]!YF_Price(CONCATENATE(A25,".SA"),"CLOSE")</f>
-        <v>1017</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>10.17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26">
-        <f>[1]!YF_Price(CONCATENATE(A26,".SA"),"CLOSE")</f>
-        <v>970</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27">
-        <f>[1]!YF_Price(CONCATENATE(A27,".SA"),"CLOSE")</f>
-        <v>1200</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28">
-        <f>[1]!YF_Price(CONCATENATE(A28,".SA"),"CLOSE")</f>
-        <v>2270</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29">
-        <f>[1]!YF_Price(CONCATENATE(A29,".SA"),"CLOSE")</f>
-        <v>792</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>7.92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30">
-        <f>[1]!YF_Price(CONCATENATE(A30,".SA"),"CLOSE")</f>
-        <v>215</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>153</v>
-      </c>
-      <c r="B31">
-        <f>[1]!YF_Price(CONCATENATE(A31,".SA"),"CLOSE")</f>
-        <v>5600</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>138</v>
-      </c>
-      <c r="B32">
-        <f>[1]!YF_Price(CONCATENATE(A32,".SA"),"CLOSE")</f>
-        <v>1746</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>17.46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>145</v>
-      </c>
-      <c r="B33">
-        <f>[1]!YF_Price(CONCATENATE(A33,".SA"),"CLOSE")</f>
-        <v>1883</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>18.829999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34">
-        <f>[1]!YF_Price(CONCATENATE(A34,".SA"),"CLOSE")</f>
-        <v>356</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35">
-        <f>[1]!YF_Price(CONCATENATE(A35,".SA"),"CLOSE")</f>
-        <v>793</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>7.93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>124</v>
-      </c>
-      <c r="B36">
-        <f>[1]!YF_Price(CONCATENATE(A36,".SA"),"CLOSE")</f>
-        <v>2275</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>22.75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37">
-        <f>[1]!YF_Price(CONCATENATE(A37,".SA"),"CLOSE")</f>
-        <v>883</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
-        <v>8.83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38">
-        <f>[1]!YF_Price(CONCATENATE(A38,".SA"),"CLOSE")</f>
-        <v>395</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
-        <v>3.95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39">
-        <f>[1]!YF_Price(CONCATENATE(A39,".SA"),"CLOSE")</f>
-        <v>4835</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="0"/>
-        <v>48.35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40">
-        <f>[1]!YF_Price(CONCATENATE(A40,".SA"),"CLOSE")</f>
-        <v>976</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="0"/>
-        <v>9.76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41">
-        <f>[1]!YF_Price(CONCATENATE(A41,".SA"),"CLOSE")</f>
-        <v>174</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="0"/>
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42">
-        <f>[1]!YF_Price(CONCATENATE(A42,".SA"),"CLOSE")</f>
-        <v>1570</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43">
-        <f>[1]!YF_Price(CONCATENATE(A43,".SA"),"CLOSE")</f>
-        <v>1686</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="0"/>
-        <v>16.86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44">
-        <f>[1]!YF_Price(CONCATENATE(A44,".SA"),"CLOSE")</f>
-        <v>542</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="0"/>
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45">
-        <f>[1]!YF_Price(CONCATENATE(A45,".SA"),"CLOSE")</f>
-        <v>745</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="0"/>
-        <v>7.45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46">
-        <f>[1]!YF_Price(CONCATENATE(A46,".SA"),"CLOSE")</f>
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47">
-        <f>[1]!YF_Price(CONCATENATE(A47,".SA"),"CLOSE")</f>
-        <v>1104</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="0"/>
-        <v>11.04</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48">
-        <f>[1]!YF_Price(CONCATENATE(A48,".SA"),"CLOSE")</f>
-        <v>206</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="0"/>
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>150</v>
-      </c>
-      <c r="B49">
-        <f>[1]!YF_Price(CONCATENATE(A49,".SA"),"CLOSE")</f>
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>111</v>
-      </c>
-      <c r="B50">
-        <f>[1]!YF_Price(CONCATENATE(A50,".SA"),"CLOSE")</f>
-        <v>1818</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="0"/>
-        <v>18.18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>82</v>
-      </c>
-      <c r="B51">
-        <f>[1]!YF_Price(CONCATENATE(A51,".SA"),"CLOSE")</f>
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52">
-        <f>[1]!YF_Price(CONCATENATE(A52,".SA"),"CLOSE")</f>
-        <v>3555</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="0"/>
-        <v>35.549999999999997</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53">
-        <f>[1]!YF_Price(CONCATENATE(A53,".SA"),"CLOSE")</f>
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>155</v>
-      </c>
-      <c r="B54">
-        <f>[1]!YF_Price(CONCATENATE(A54,".SA"),"CLOSE")</f>
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>160</v>
-      </c>
-      <c r="B55">
-        <f>[1]!YF_Price(CONCATENATE(A55,".SA"),"CLOSE")</f>
-        <v>1298</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="0"/>
-        <v>12.98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>